--- a/TimeCalculator.xlsx
+++ b/TimeCalculator.xlsx
@@ -854,7 +854,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
